--- a/docs/wiring.xlsx
+++ b/docs/wiring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01-home\14-python\spiClock\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01-home\14-python\gitTrackedCode\spiClock\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC106387-1938-4186-AE20-5359DFD71F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E932DD-C07E-4560-A473-347FC5E1A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="735" windowWidth="18015" windowHeight="14895" xr2:uid="{BBCFC7B8-5D04-41D4-8F46-6DA2F5E1E523}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="15585" xr2:uid="{BBCFC7B8-5D04-41D4-8F46-6DA2F5E1E523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>vcc</t>
   </si>
@@ -130,11 +130,6 @@
   <si>
     <t>Sig 
 Color</t>
-  </si>
-  <si>
-    <t>Rpi
-Sig 
-Name</t>
   </si>
   <si>
     <t>LCD
@@ -182,13 +177,24 @@
   </si>
   <si>
     <t>ethernet</t>
+  </si>
+  <si>
+    <t>RPi
+Sig 
+Name</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -671,25 +690,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,11 +716,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,15 +768,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>98534</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>98534</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -784,15 +818,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>112986</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>112986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>112986</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>112986</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -834,15 +868,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88023</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -884,15 +918,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>122182</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>89337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>122182</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>89337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -934,15 +968,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>97221</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>90651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>97221</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>90651</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -984,15 +1018,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>105104</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>105104</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1034,15 +1068,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>99847</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>119554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>99847</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>119554</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1084,15 +1118,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>112985</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>112985</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>80134</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1134,15 +1168,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>127437</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>127437</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>81448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1184,15 +1218,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>128751</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>128751</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1234,15 +1268,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>136633</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>136633</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1284,15 +1318,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>111672</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>111672</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1334,15 +1368,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>119555</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>119555</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>80134</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1384,15 +1418,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>114298</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>114298</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>88016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1434,15 +1468,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>116918</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>116918</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>116919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1484,15 +1518,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>124800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>124800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>118233</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1534,15 +1568,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>99839</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>99839</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>119547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1584,15 +1618,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>118228</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>118228</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>105094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1634,15 +1668,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>126110</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>126110</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>106408</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1684,15 +1718,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>101149</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>101149</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>107722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2052,993 +2086,1422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5EE95F-D272-490C-AA41-F0BE02A6886D}">
-  <dimension ref="B1:AA33"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="6" width="3.28515625" style="1" customWidth="1"/>
-    <col min="7" max="23" width="3.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="3.28515625" style="1" customWidth="1"/>
+    <col min="9" max="25" width="3.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="38" t="s">
+    <row r="1" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+    </row>
+    <row r="3" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="58"/>
+    </row>
+    <row r="4" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="58"/>
+    </row>
+    <row r="5" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="58"/>
+    </row>
+    <row r="6" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="58"/>
+    </row>
+    <row r="7" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="58"/>
+    </row>
+    <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="30"/>
-    </row>
-    <row r="4" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="30"/>
-    </row>
-    <row r="5" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="30"/>
-    </row>
-    <row r="6" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="40" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="58"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="58"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="58"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="15">
+        <v>39</v>
+      </c>
+      <c r="G11" s="34">
+        <v>37</v>
+      </c>
+      <c r="H11" s="15">
+        <v>35</v>
+      </c>
+      <c r="I11" s="15">
+        <v>33</v>
+      </c>
+      <c r="J11" s="34">
+        <v>31</v>
+      </c>
+      <c r="K11" s="34">
+        <v>29</v>
+      </c>
+      <c r="L11" s="15">
+        <v>27</v>
+      </c>
+      <c r="M11" s="15">
+        <v>25</v>
+      </c>
+      <c r="N11" s="14">
+        <v>23</v>
+      </c>
+      <c r="O11" s="15">
+        <v>21</v>
+      </c>
+      <c r="P11" s="14">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>17</v>
+      </c>
+      <c r="R11" s="34">
+        <v>15</v>
+      </c>
+      <c r="S11" s="14">
+        <v>13</v>
+      </c>
+      <c r="T11" s="34">
+        <v>11</v>
+      </c>
+      <c r="U11" s="15">
+        <v>9</v>
+      </c>
+      <c r="V11" s="15">
+        <v>7</v>
+      </c>
+      <c r="W11" s="15">
+        <v>5</v>
+      </c>
+      <c r="X11" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="58"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="15">
+        <v>40</v>
+      </c>
+      <c r="G12" s="15">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15">
+        <v>36</v>
+      </c>
+      <c r="I12" s="15">
+        <v>34</v>
+      </c>
+      <c r="J12" s="15">
+        <v>32</v>
+      </c>
+      <c r="K12" s="15">
+        <v>30</v>
+      </c>
+      <c r="L12" s="15">
+        <v>28</v>
+      </c>
+      <c r="M12" s="15">
+        <v>26</v>
+      </c>
+      <c r="N12" s="15">
+        <v>24</v>
+      </c>
+      <c r="O12" s="14">
+        <v>22</v>
+      </c>
+      <c r="P12" s="15">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>18</v>
+      </c>
+      <c r="R12" s="34">
+        <v>16</v>
+      </c>
+      <c r="S12" s="15">
+        <v>14</v>
+      </c>
+      <c r="T12" s="14">
+        <v>12</v>
+      </c>
+      <c r="U12" s="15">
+        <v>10</v>
+      </c>
+      <c r="V12" s="15">
+        <v>8</v>
+      </c>
+      <c r="W12" s="14">
+        <v>6</v>
+      </c>
+      <c r="X12" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="58"/>
+    </row>
+    <row r="13" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="58"/>
+    </row>
+    <row r="14" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="58"/>
+    </row>
+    <row r="15" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="58"/>
+    </row>
+    <row r="16" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="37">
+        <v>29</v>
+      </c>
+      <c r="K16" s="38">
+        <v>31</v>
+      </c>
+      <c r="L16" s="38">
+        <v>11</v>
+      </c>
+      <c r="M16" s="38">
+        <v>15</v>
+      </c>
+      <c r="N16" s="38">
+        <v>16</v>
+      </c>
+      <c r="O16" s="38">
+        <v>37</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="36">
+        <v>12</v>
+      </c>
+      <c r="R16" s="36">
+        <v>13</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="36">
+        <v>22</v>
+      </c>
+      <c r="U16" s="36">
+        <v>23</v>
+      </c>
+      <c r="V16" s="36">
+        <v>19</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="36">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="58"/>
+    </row>
+    <row r="17" spans="2:30" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="30"/>
-    </row>
-    <row r="7" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="30"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="30"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="15">
-        <v>39</v>
-      </c>
-      <c r="E9" s="46">
-        <v>37</v>
-      </c>
-      <c r="F9" s="15">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15">
-        <v>33</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="58"/>
+    </row>
+    <row r="18" spans="2:30" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="46">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15">
-        <v>27</v>
-      </c>
-      <c r="K9" s="15">
-        <v>25</v>
-      </c>
-      <c r="L9" s="14">
-        <v>23</v>
-      </c>
-      <c r="M9" s="15">
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="58"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="58"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="58"/>
+    </row>
+    <row r="21" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="58"/>
+    </row>
+    <row r="22" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="14">
-        <v>19</v>
-      </c>
-      <c r="O9" s="15">
-        <v>17</v>
-      </c>
-      <c r="P9" s="46">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>13</v>
-      </c>
-      <c r="R9" s="46">
-        <v>11</v>
-      </c>
-      <c r="S9" s="15">
-        <v>9</v>
-      </c>
-      <c r="T9" s="15">
-        <v>7</v>
-      </c>
-      <c r="U9" s="15">
-        <v>5</v>
-      </c>
-      <c r="V9" s="15">
-        <v>3</v>
-      </c>
-      <c r="W9" s="14">
-        <v>1</v>
-      </c>
-      <c r="X9" s="30"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="15">
-        <v>40</v>
-      </c>
-      <c r="E10" s="15">
-        <v>38</v>
-      </c>
-      <c r="F10" s="15">
-        <v>36</v>
-      </c>
-      <c r="G10" s="15">
-        <v>34</v>
-      </c>
-      <c r="H10" s="15">
-        <v>32</v>
-      </c>
-      <c r="I10" s="15">
-        <v>30</v>
-      </c>
-      <c r="J10" s="15">
-        <v>28</v>
-      </c>
-      <c r="K10" s="15">
-        <v>26</v>
-      </c>
-      <c r="L10" s="15">
-        <v>24</v>
-      </c>
-      <c r="M10" s="14">
-        <v>22</v>
-      </c>
-      <c r="N10" s="15">
-        <v>20</v>
-      </c>
-      <c r="O10" s="15">
-        <v>18</v>
-      </c>
-      <c r="P10" s="46">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>14</v>
-      </c>
-      <c r="R10" s="14">
-        <v>12</v>
-      </c>
-      <c r="S10" s="15">
-        <v>10</v>
-      </c>
-      <c r="T10" s="15">
-        <v>8</v>
-      </c>
-      <c r="U10" s="14">
-        <v>6</v>
-      </c>
-      <c r="V10" s="15">
-        <v>4</v>
-      </c>
-      <c r="W10" s="15">
-        <v>2</v>
-      </c>
-      <c r="X10" s="30"/>
-    </row>
-    <row r="11" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-    </row>
-    <row r="12" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-    </row>
-    <row r="14" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="H14" s="49">
-        <v>29</v>
-      </c>
-      <c r="I14" s="50">
-        <v>31</v>
-      </c>
-      <c r="J14" s="50">
-        <v>11</v>
-      </c>
-      <c r="K14" s="50">
-        <v>15</v>
-      </c>
-      <c r="L14" s="50">
-        <v>16</v>
-      </c>
-      <c r="M14" s="50">
-        <v>37</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="48">
-        <v>12</v>
-      </c>
-      <c r="P14" s="48">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="48">
-        <v>22</v>
-      </c>
-      <c r="S14" s="48">
-        <v>23</v>
-      </c>
-      <c r="T14" s="48">
-        <v>19</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="48">
-        <v>6</v>
-      </c>
-      <c r="W14" s="47">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="2:27" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="H15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="30"/>
-    </row>
-    <row r="16" spans="2:27" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA16" s="30"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="AA17" s="30"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="AA18" s="30"/>
-    </row>
-    <row r="19" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="AA19" s="30"/>
-    </row>
-    <row r="20" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="Y20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA20" s="30"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="16"/>
-      <c r="Y21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="30"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="16"/>
-      <c r="Y22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="30"/>
-    </row>
-    <row r="23" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="58"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="14"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="16"/>
-      <c r="Y23" s="21" t="s">
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="58"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="58"/>
+    </row>
+    <row r="25" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="22">
+      <c r="AB25" s="22">
         <v>3</v>
       </c>
-      <c r="AA23" s="30"/>
-    </row>
-    <row r="24" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="30"/>
-    </row>
-    <row r="25" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="30"/>
-    </row>
-    <row r="26" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="11"/>
-      <c r="Y26" s="12" t="s">
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="58"/>
+    </row>
+    <row r="26" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="58"/>
+    </row>
+    <row r="27" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="58"/>
+    </row>
+    <row r="28" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="AB28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA26" s="30"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="16"/>
-      <c r="Y27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="18">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="30"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="16"/>
-      <c r="Y28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="20">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="30"/>
-    </row>
-    <row r="29" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="58"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
+      <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16"/>
-      <c r="Y29" s="21" t="s">
+      <c r="W29" s="14"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="58"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB30" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="58"/>
+    </row>
+    <row r="31" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Z29" s="22">
+      <c r="AB31" s="22">
         <v>6</v>
       </c>
-      <c r="AA29" s="30"/>
-    </row>
-    <row r="30" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="AA30" s="30"/>
-    </row>
-    <row r="31" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="AA31" s="30"/>
-    </row>
-    <row r="32" spans="2:27" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="H32" s="4" t="s">
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="58"/>
+    </row>
+    <row r="32" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="58"/>
+    </row>
+    <row r="33" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="58"/>
+    </row>
+    <row r="34" spans="2:30" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="R34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5" t="s">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="U34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="V34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="6"/>
-      <c r="V32" s="5" t="s">
+      <c r="W34" s="6"/>
+      <c r="X34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W32" s="7" t="s">
+      <c r="Y34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="Z34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA32" s="30"/>
-    </row>
-    <row r="33" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="35"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="58"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="58"/>
+    </row>
+    <row r="36" spans="2:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="58"/>
+    </row>
+    <row r="37" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="58"/>
+    </row>
+    <row r="38" spans="2:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L5:R6"/>
+    <mergeCell ref="J36:Y36"/>
   </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="97" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>